--- a/po_analysis_by_asin/B0D3HDFR62_po_data.xlsx
+++ b/po_analysis_by_asin/B0D3HDFR62_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>

--- a/po_analysis_by_asin/B0D3HDFR62_po_data.xlsx
+++ b/po_analysis_by_asin/B0D3HDFR62_po_data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
